--- a/analises/2023/_apoio/4/sint_resumo_por_origem_modalidade_2023.xlsx
+++ b/analises/2023/_apoio/4/sint_resumo_por_origem_modalidade_2023.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\profico-hq\analises\2023\_apoio\4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C02BF-BCEE-4726-AF94-5F42D7208EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+  <si>
+    <t>geral_modalidade</t>
+  </si>
   <si>
     <t>origem</t>
   </si>
@@ -28,111 +25,57 @@
     <t>total</t>
   </si>
   <si>
+    <t>total_sucesso</t>
+  </si>
+  <si>
+    <t>total_falha</t>
+  </si>
+  <si>
+    <t>particip</t>
+  </si>
+  <si>
+    <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>valor_sucesso</t>
+  </si>
+  <si>
+    <t>media_sucesso</t>
+  </si>
+  <si>
+    <t>std_sucesso</t>
+  </si>
+  <si>
+    <t>min_sucesso</t>
+  </si>
+  <si>
+    <t>max_sucesso</t>
+  </si>
+  <si>
     <t>aon</t>
   </si>
   <si>
-    <t>aon_sucesso</t>
-  </si>
-  <si>
-    <t>aon_falha</t>
-  </si>
-  <si>
-    <t>aon_particip</t>
-  </si>
-  <si>
-    <t>aon_taxa_sucesso</t>
-  </si>
-  <si>
-    <t>aon_valor_sucesso</t>
-  </si>
-  <si>
-    <t>aon_media_sucesso</t>
-  </si>
-  <si>
-    <t>aon_std_sucesso</t>
-  </si>
-  <si>
-    <t>aon_min_sucesso</t>
-  </si>
-  <si>
-    <t>aon_max_sucesso</t>
-  </si>
-  <si>
     <t>flex</t>
   </si>
   <si>
-    <t>flex_sucesso</t>
-  </si>
-  <si>
-    <t>flex_falha</t>
-  </si>
-  <si>
-    <t>flex_particip</t>
-  </si>
-  <si>
-    <t>flex_taxa_sucesso</t>
-  </si>
-  <si>
-    <t>flex_valor_sucesso</t>
-  </si>
-  <si>
-    <t>flex_media_sucesso</t>
-  </si>
-  <si>
-    <t>flex_std_sucesso</t>
-  </si>
-  <si>
-    <t>flex_min_sucesso</t>
-  </si>
-  <si>
-    <t>flex_max_sucesso</t>
-  </si>
-  <si>
     <t>sub</t>
   </si>
   <si>
-    <t>sub_sucesso</t>
-  </si>
-  <si>
-    <t>sub_falha</t>
-  </si>
-  <si>
-    <t>sub_particip</t>
-  </si>
-  <si>
-    <t>sub_taxa_sucesso</t>
-  </si>
-  <si>
-    <t>sub_valor_sucesso</t>
-  </si>
-  <si>
-    <t>sub_media_sucesso</t>
-  </si>
-  <si>
-    <t>sub_std_sucesso</t>
-  </si>
-  <si>
-    <t>sub_min_sucesso</t>
-  </si>
-  <si>
-    <t>sub_max_sucesso</t>
+    <t>catarse</t>
   </si>
   <si>
     <t>apoia.se</t>
-  </si>
-  <si>
-    <t>catarse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="\R\$\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="R$ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +85,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -188,40 +124,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -293,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,10 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,50 +427,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AF3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,265 +480,198 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1335</v>
+      </c>
+      <c r="D2">
+        <v>830</v>
+      </c>
+      <c r="E2">
+        <v>505</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.6217228464419475</v>
+      </c>
+      <c r="H2" s="2">
+        <v>24063279.82732303</v>
+      </c>
+      <c r="I2" s="2">
+        <v>28991.90340641329</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44961.93536949201</v>
+      </c>
+      <c r="K2" s="2">
+        <v>41.81688448509265</v>
+      </c>
+      <c r="L2" s="2">
+        <v>679297.6600721752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.003405994550408719</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1463</v>
+      </c>
+      <c r="D4">
+        <v>1383</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.9965940054495913</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.9453178400546821</v>
+      </c>
+      <c r="H4" s="2">
+        <v>18362131.9375591</v>
+      </c>
+      <c r="I4" s="2">
+        <v>13277.02960054888</v>
+      </c>
+      <c r="J4" s="2">
+        <v>33934.82811955066</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="L4" s="2">
+        <v>708972.7845446636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>627</v>
+      </c>
+      <c r="D5">
+        <v>137</v>
+      </c>
+      <c r="E5">
+        <v>490</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2185007974481659</v>
+      </c>
+      <c r="H5" s="2">
+        <v>39550.43984210649</v>
+      </c>
+      <c r="I5" s="2">
+        <v>288.6893419131861</v>
+      </c>
+      <c r="J5" s="2">
+        <v>682.4025885496077</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.087396962410123</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5087.076865717208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>632</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>3.4059945504087189E-3</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>627</v>
-      </c>
-      <c r="X2">
-        <v>137</v>
-      </c>
-      <c r="Y2">
-        <v>490</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0.21850079744816589</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>39550.439842106491</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>288.68934191318613</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>682.40258854960769</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>1.087396962410123</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>5087.0768657172084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>2855</v>
-      </c>
-      <c r="C3">
-        <v>1335</v>
-      </c>
-      <c r="D3">
-        <v>830</v>
-      </c>
-      <c r="E3">
-        <v>505</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.62172284644194753</v>
-      </c>
-      <c r="H3" s="2">
-        <v>24063279.827323031</v>
-      </c>
-      <c r="I3" s="2">
-        <v>28991.90340641329</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44961.935369492006</v>
-      </c>
-      <c r="K3" s="2">
-        <v>41.81688448509265</v>
-      </c>
-      <c r="L3">
-        <v>679297.6600721752</v>
-      </c>
-      <c r="M3">
-        <v>1463</v>
-      </c>
-      <c r="N3">
-        <v>1383</v>
-      </c>
-      <c r="O3">
-        <v>80</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.99659400544959131</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.94531784005468211</v>
-      </c>
-      <c r="R3" s="2">
-        <v>18362131.937559102</v>
-      </c>
-      <c r="S3" s="2">
-        <v>13277.02960054888</v>
-      </c>
-      <c r="T3" s="2">
-        <v>33934.828119550657</v>
-      </c>
-      <c r="U3" s="2">
-        <v>10.771639144290461</v>
-      </c>
-      <c r="V3">
-        <v>708972.78454466362</v>
-      </c>
-      <c r="W3">
+      <c r="C6">
         <v>57</v>
       </c>
-      <c r="X3">
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="Y3">
+      <c r="E6">
         <v>42</v>
       </c>
-      <c r="Z3" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>3636.5179126783141</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>242.43452751188761</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>198.39896055489851</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>10.981621647967829</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>538.43899987894974</v>
+      <c r="F6" s="1">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3636.517912678314</v>
+      </c>
+      <c r="I6" s="2">
+        <v>242.4345275118876</v>
+      </c>
+      <c r="J6" s="2">
+        <v>198.3989605548985</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10.98162164796783</v>
+      </c>
+      <c r="L6" s="2">
+        <v>538.4389998789497</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>